--- a/InputFiles/CCDI/TC01_CCDI_Filter_PHS-Accession-phs000720.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_Filter_PHS-Accession-phs000720.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CED2B3D-2FF3-48A8-977A-6C8BDD541B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C3C35E-1928-45C5-92D9-A10ED49F490F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
         count(distinct file.id) as Files</t>
   </si>
   <si>
-    <t>MATCH (st:study)&lt;-[:of_participant]-(p:participant)
+    <t xml:space="preserve">MATCH (st:study)&lt;-[:of_participant]-(p:participant)
 where st.phs_accession in ["phs000720"]
 with st, count(p) as num_p
 MATCH (st)&lt;-[:of_participant]-(participant)&lt;-[:of_diagnosis]-(dg:diagnosis)
@@ -436,14 +436,15 @@
   st.study_short_title as `Study Short Title`,
 st.study_id as `Study ID`,
   CASE WHEN size(cancers) &gt; 5 THEN apoc.text.join(apoc.coll.remove(cancers, 5, 10000), "\n") + "\nRead More"  else apoc.text.join(cancers, "\n") END as `Diagnosis (Top 5)`,
-  CASE WHEN size(sites) &gt; 5 THEN apoc.text.join(apoc.coll.remove(sites, 5, 10000), "\n") + "\nRead More"  else apoc.text.join(sites, "\n") END as `Diagnosis Anatomic Site (Top 5)`,
+    CASE WHEN size(sites) &gt; 5 THEN '="' + apoc.text.join(apoc.coll.remove(sites, 5, 10000), '"&amp;CHAR(10)&amp;"') + '"&amp;CHAR(10)&amp;"Read More"'  else '="' + apoc.text.join(sites, '"&amp;CHAR(10)&amp;"') + '"' END as `Diagnosis Anatomic Site (Top 5)`,
   num_p as `Number of Participants`,
   num_samples as `Number of Samples`,
   num_files as `Number of Files`,
   CASE WHEN size(file_types) &gt; 5 THEN apoc.text.join(apoc.coll.remove(file_types, 5, 10000), "\n") + "\nRead More"  else apoc.text.join(file_types, "\n") END as `File Type (Top 5)`,
   apoc.text.join(COLLECT(DISTINCT pub.pubmed_id), ';') as `PubMed ID`,
   apoc.text.join(COLLECT(DISTINCT stp.personnel_name), ';') as `Principal Investigator(s)`,
-  apoc.text.join(COLLECT(DISTINCT stf.grant_id), ';') as `Grant ID`</t>
+  apoc.text.join(COLLECT(DISTINCT stf.grant_id), ';') as `Grant ID`
+</t>
   </si>
 </sst>
 </file>
